--- a/Text Editing Worklist.xlsx
+++ b/Text Editing Worklist.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Text " sheetId="1" r:id="rId1"/>
+    <sheet name="Text Editing " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1018,7 @@
     <col min="6" max="6" width="3.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5" customWidth="1"/>
     <col min="11" max="11" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
@@ -1654,12 +1654,11 @@
         <v>30</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="24" t="s">
+      <c r="F26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="10" t="s">
         <v>34</v>
@@ -1679,9 +1678,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="7"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="2"/>
       <c r="K27" s="10" t="s">
         <v>35</v>
@@ -1699,11 +1697,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="10" t="s">
         <v>36</v>
@@ -1725,11 +1722,10 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="10" t="s">
         <v>37</v>
@@ -1743,7 +1739,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>84</v>
       </c>
       <c r="K30" s="10" t="s">
@@ -1754,7 +1750,7 @@
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K31" s="10" t="s">
@@ -1765,7 +1761,7 @@
       <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="G32" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>86</v>
       </c>
       <c r="K32" s="10" t="s">
@@ -1779,8 +1775,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="7:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="G33" s="10" t="s">
+    <row r="33" spans="9:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="I33" s="10" t="s">
         <v>87</v>
       </c>
       <c r="K33" s="10" t="s">
@@ -1794,7 +1790,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="7:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="K34" s="10" t="s">
         <v>42</v>
       </c>
@@ -1802,7 +1798,7 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="7:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="K35" s="10" t="s">
         <v>43</v>
       </c>
@@ -1812,7 +1808,7 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="7:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="K36" s="10" t="s">
         <v>44</v>
       </c>
@@ -1820,7 +1816,7 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="7:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="K37" s="10" t="s">
         <v>45</v>
       </c>
@@ -1830,7 +1826,7 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="7:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="K38" s="10" t="s">
         <v>46</v>
       </c>
@@ -1840,7 +1836,7 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.2">
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
